--- a/excel/relatorio.xlsx
+++ b/excel/relatorio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,46 +441,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nascimento</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cpf</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>origem</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
+          <t>matricula</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kaique govani</t>
+          <t>Karine calixto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0021-02-22</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>123123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Loja</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1313</v>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -489,21 +461,8 @@
           <t>Matheus Soares</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3131-02-23</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13131</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Loja</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>12312</v>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
